--- a/Stock Selection/tickers_Updated.xlsx
+++ b/Stock Selection/tickers_Updated.xlsx
@@ -8,32 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional_WorkTools\Github\RodWal-Capital-Insights\Stock Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13674B4-F9D3-46F6-AC6B-62C197681AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496CAE1D-00E7-434C-93FD-F23EF5E3C8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$56</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="88">
   <si>
     <t>Chapter</t>
   </si>
@@ -242,52 +232,52 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>VIX</t>
-  </si>
-  <si>
-    <t>Error: single positional indexer is out-of-bounds</t>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>^VIX</t>
   </si>
   <si>
     <t>MAXN</t>
   </si>
   <si>
-    <t>USDMXN</t>
+    <t>USDMXN=X</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>SDIA.L</t>
+  </si>
+  <si>
+    <t>FLOA.L</t>
+  </si>
+  <si>
+    <t>VHYD.L</t>
+  </si>
+  <si>
+    <t>VWO</t>
+  </si>
+  <si>
+    <t>SQM</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>VBTC.DE</t>
+  </si>
+  <si>
+    <t>BATT.AS</t>
+  </si>
+  <si>
+    <t>JPY=X</t>
+  </si>
+  <si>
+    <t>US30</t>
   </si>
   <si>
     <t xml:space="preserve">Error: HTTP Error 404: </t>
-  </si>
-  <si>
-    <t>ETF</t>
-  </si>
-  <si>
-    <t>SDIA.L</t>
-  </si>
-  <si>
-    <t>FLOA.L</t>
-  </si>
-  <si>
-    <t>VHYD.L</t>
-  </si>
-  <si>
-    <t>VWO</t>
-  </si>
-  <si>
-    <t>SQM</t>
-  </si>
-  <si>
-    <t>US500</t>
-  </si>
-  <si>
-    <t>VBTC.DE</t>
-  </si>
-  <si>
-    <t>BATT.AS</t>
-  </si>
-  <si>
-    <t>USDJPY</t>
-  </si>
-  <si>
-    <t>US30</t>
   </si>
   <si>
     <t>BOTZ.L</t>
@@ -315,6 +305,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -661,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +661,7 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -739,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>29.180000305175781</v>
+        <v>30.170000076293949</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -748,10 +739,10 @@
         <v>17</v>
       </c>
       <c r="G2">
-        <v>2.5285962</v>
+        <v>2.6143847</v>
       </c>
       <c r="H2">
-        <v>-4.7993420000000002</v>
+        <v>-4.9621709999999997</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -772,7 +763,7 @@
         <v>-6.08</v>
       </c>
       <c r="O2">
-        <v>61.33541980833278</v>
+        <v>61.257839492308243</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -783,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>192.97999572753909</v>
+        <v>194.47999572753909</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -792,10 +783,10 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>108.41573</v>
+        <v>109.87569999999999</v>
       </c>
       <c r="H3">
-        <v>26.802778</v>
+        <v>27.011109999999999</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -810,13 +801,13 @@
         <v>14.63741851640019</v>
       </c>
       <c r="M3">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="N3">
         <v>7.2</v>
       </c>
       <c r="O3">
-        <v>36.271154159365317</v>
+        <v>36.024320074312087</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -827,19 +818,19 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>228.61000061035159</v>
+        <v>231.67999267578119</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4">
-        <v>106.33023</v>
+        <v>106.76497000000001</v>
       </c>
       <c r="H4">
-        <v>37.051864999999999</v>
+        <v>37.549430000000001</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -854,13 +845,13 @@
         <v>19.066918134984039</v>
       </c>
       <c r="M4">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="N4">
         <v>6.17</v>
       </c>
       <c r="O4">
-        <v>63.32097662067401</v>
+        <v>63.300857092351812</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -871,7 +862,7 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>35.25</v>
+        <v>33.819999694824219</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -880,10 +871,10 @@
         <v>17</v>
       </c>
       <c r="G5">
-        <v>32.943924000000003</v>
+        <v>31.607475000000001</v>
       </c>
       <c r="H5">
-        <v>11.789298</v>
+        <v>11.311037000000001</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -904,7 +895,7 @@
         <v>2.99</v>
       </c>
       <c r="O5">
-        <v>43.11862026902876</v>
+        <v>43.231719665994042</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -915,19 +906,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>29.840000152587891</v>
+        <v>29.704999923706051</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G6">
-        <v>15.224489</v>
+        <v>15.155612</v>
       </c>
       <c r="H6">
-        <v>7.8115186999999997</v>
+        <v>7.7761784</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -948,7 +939,7 @@
         <v>3.82</v>
       </c>
       <c r="O6">
-        <v>21.281624339779711</v>
+        <v>21.291237443068791</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -959,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>178.46000671386719</v>
+        <v>167.2200012207031</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -968,10 +959,10 @@
         <v>17</v>
       </c>
       <c r="G7">
-        <v>15.149406000000001</v>
+        <v>14.195247</v>
       </c>
       <c r="H7">
-        <v>8.5551290000000009</v>
+        <v>8.0162990000000001</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -992,7 +983,7 @@
         <v>20.86</v>
       </c>
       <c r="O7">
-        <v>64.094430326598768</v>
+        <v>64.053894557627174</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1003,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>17.829999923706051</v>
+        <v>18.670000076293949</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -1036,7 +1027,7 @@
         <v>1.82</v>
       </c>
       <c r="O8">
-        <v>35.742191874886551</v>
+        <v>35.884810804278708</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1047,19 +1038,19 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>17.670000076293949</v>
+        <v>17.840000152587891</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G9">
-        <v>19.633333</v>
+        <v>19.822223999999999</v>
       </c>
       <c r="H9">
-        <v>12.6214285</v>
+        <v>12.742858</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1080,7 +1071,7 @@
         <v>1.4</v>
       </c>
       <c r="O9">
-        <v>43.346729684871782</v>
+        <v>43.359928707744928</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1091,19 +1082,19 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>102.5</v>
+        <v>109.11000061035161</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>21.533612999999999</v>
+        <v>22.922267999999999</v>
       </c>
       <c r="H10">
-        <v>13.795424000000001</v>
+        <v>14.685060999999999</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1124,7 +1115,7 @@
         <v>7.43</v>
       </c>
       <c r="O10">
-        <v>27.19158640499731</v>
+        <v>27.50116893488423</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1135,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>135.3999938964844</v>
+        <v>134.3800048828125</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1144,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>46.05442</v>
+        <v>45.707484999999998</v>
       </c>
       <c r="H11">
-        <v>32.864080000000001</v>
+        <v>32.616509999999998</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1168,7 +1159,7 @@
         <v>4.12</v>
       </c>
       <c r="O11">
-        <v>60.099153314470414</v>
+        <v>60.064236490185252</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1179,19 +1170,19 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>74.410003662109375</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G12">
-        <v>28.089887999999998</v>
+        <v>27.868914</v>
       </c>
       <c r="H12">
-        <v>20.380434000000001</v>
+        <v>20.220109999999998</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -1212,7 +1203,7 @@
         <v>3.68</v>
       </c>
       <c r="O12">
-        <v>28.66117458258277</v>
+        <v>28.675763963705901</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1223,19 +1214,19 @@
         <v>37</v>
       </c>
       <c r="D13">
-        <v>22.10000038146973</v>
+        <v>21.979999542236332</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G13">
-        <v>13.47561</v>
+        <v>13.402438999999999</v>
       </c>
       <c r="H13">
-        <v>9.7356829999999999</v>
+        <v>9.6828190000000003</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -1256,7 +1247,7 @@
         <v>2.27</v>
       </c>
       <c r="O13">
-        <v>24.889373824291859</v>
+        <v>24.916317202049871</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1267,7 +1258,7 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>165.57000732421881</v>
+        <v>165.72999572753909</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1276,10 +1267,10 @@
         <v>111</v>
       </c>
       <c r="G14">
-        <v>20.166869999999999</v>
+        <v>20.186357000000001</v>
       </c>
       <c r="H14">
-        <v>17.086689</v>
+        <v>17.103199</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1300,7 +1291,7 @@
         <v>9.69</v>
       </c>
       <c r="O14">
-        <v>48.896490159607993</v>
+        <v>48.749717596986237</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1311,19 +1302,19 @@
         <v>39</v>
       </c>
       <c r="D15">
-        <v>211.25999450683591</v>
+        <v>206.86000061035159</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>32.90654</v>
+        <v>32.171073999999997</v>
       </c>
       <c r="H15">
-        <v>25.42238</v>
+        <v>24.892899</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -1338,13 +1329,13 @@
         <v>24.301263745783849</v>
       </c>
       <c r="M15">
-        <v>6.42</v>
+        <v>6.43</v>
       </c>
       <c r="N15">
         <v>8.31</v>
       </c>
       <c r="O15">
-        <v>33.002872737392643</v>
+        <v>33.030200745518641</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1355,19 +1346,19 @@
         <v>40</v>
       </c>
       <c r="D16">
-        <v>131.97999572753909</v>
+        <v>131.80000305175781</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16">
-        <v>430.99999999999989</v>
+        <v>432</v>
       </c>
       <c r="G16">
-        <v>19.408823000000002</v>
+        <v>19.382352999999998</v>
       </c>
       <c r="H16">
-        <v>15.293162000000001</v>
+        <v>15.272306</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -1388,7 +1379,7 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="O16">
-        <v>19.797213187791819</v>
+        <v>19.768308105952471</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1399,19 +1390,19 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>365.1199951171875</v>
+        <v>366.83999633789063</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
       <c r="F17">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>36.621864000000002</v>
+        <v>36.942596000000002</v>
       </c>
       <c r="H17">
-        <v>28.840443</v>
+        <v>28.976303000000001</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -1426,13 +1417,13 @@
         <v>52.210202623591513</v>
       </c>
       <c r="M17">
-        <v>9.9700000000000006</v>
+        <v>9.93</v>
       </c>
       <c r="N17">
         <v>12.66</v>
       </c>
       <c r="O17">
-        <v>21.96092733903993</v>
+        <v>21.9379273575939</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1443,19 +1434,19 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>152.5</v>
+        <v>153.82000732421881</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18">
-        <v>15.5453615</v>
+        <v>15.679918000000001</v>
       </c>
       <c r="H18">
-        <v>12.469338</v>
+        <v>12.577270499999999</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1476,7 +1467,7 @@
         <v>12.23</v>
       </c>
       <c r="O18">
-        <v>43.720426511664357</v>
+        <v>43.648713329622822</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1487,19 +1478,19 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>148.07000732421881</v>
+        <v>149.0299987792969</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
       </c>
       <c r="F19">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G19">
-        <v>29.496016999999998</v>
+        <v>29.746506</v>
       </c>
       <c r="H19">
-        <v>24.353619999999999</v>
+        <v>24.511513000000001</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1514,13 +1505,13 @@
         <v>18.415610746600951</v>
       </c>
       <c r="M19">
-        <v>5.0199999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="N19">
         <v>6.08</v>
       </c>
       <c r="O19">
-        <v>22.141678940415019</v>
+        <v>22.120596645111789</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1531,19 +1522,19 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>140.80999755859381</v>
+        <v>140.94999694824219</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
       </c>
       <c r="F20">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G20">
-        <v>14.853376000000001</v>
+        <v>14.868143999999999</v>
       </c>
       <c r="H20">
-        <v>12.674168</v>
+        <v>12.686769</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1564,7 +1555,7 @@
         <v>11.11</v>
       </c>
       <c r="O20">
-        <v>25.733437233184841</v>
+        <v>25.71179340819765</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1575,19 +1566,19 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>503.89999389648438</v>
+        <v>504.89999389648438</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
       <c r="F21">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G21">
-        <v>20.043755000000001</v>
+        <v>20.091524</v>
       </c>
       <c r="H21">
-        <v>17.322104</v>
+        <v>17.356480000000001</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1602,13 +1593,13 @@
         <v>14.81997561254024</v>
       </c>
       <c r="M21">
-        <v>25.14</v>
+        <v>25.13</v>
       </c>
       <c r="N21">
         <v>29.09</v>
       </c>
       <c r="O21">
-        <v>31.991503187925019</v>
+        <v>32.031989526014129</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1619,19 +1610,19 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>454.26998901367188</v>
+        <v>458.17001342773438</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22">
-        <v>35.078766000000002</v>
+        <v>35.407265000000002</v>
       </c>
       <c r="H22">
-        <v>30.385952</v>
+        <v>30.646823999999999</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1646,13 +1637,13 @@
         <v>35.789415272465227</v>
       </c>
       <c r="M22">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="N22">
         <v>14.95</v>
       </c>
       <c r="O22">
-        <v>25.77121252311759</v>
+        <v>25.749763108838518</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1663,7 +1654,7 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>583.280029296875</v>
+        <v>581.1099853515625</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
@@ -1672,10 +1663,10 @@
         <v>52</v>
       </c>
       <c r="G23">
-        <v>40.989463999999998</v>
+        <v>40.779648000000002</v>
       </c>
       <c r="H23">
-        <v>35.609282999999998</v>
+        <v>35.476802999999997</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1690,13 +1681,13 @@
         <v>45.213112751383562</v>
       </c>
       <c r="M23">
-        <v>14.23</v>
+        <v>14.25</v>
       </c>
       <c r="N23">
         <v>16.38</v>
       </c>
       <c r="O23">
-        <v>21.155492483519271</v>
+        <v>21.18180387498235</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1707,19 +1698,19 @@
         <v>49</v>
       </c>
       <c r="D24">
-        <v>103.0400009155273</v>
+        <v>103.73000335693359</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G24">
-        <v>19.891893</v>
+        <v>20.025096999999999</v>
       </c>
       <c r="H24">
-        <v>17.494059</v>
+        <v>17.611205999999999</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1740,7 +1731,7 @@
         <v>5.89</v>
       </c>
       <c r="O24">
-        <v>19.774210651342681</v>
+        <v>19.78481537175637</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1751,7 +1742,7 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>98.239997863769531</v>
+        <v>97.800003051757813</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
@@ -1760,10 +1751,10 @@
         <v>96</v>
       </c>
       <c r="G25">
-        <v>41.982906</v>
+        <v>41.794876000000002</v>
       </c>
       <c r="H25">
-        <v>36.117645000000003</v>
+        <v>35.955883</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1784,7 +1775,7 @@
         <v>2.72</v>
       </c>
       <c r="O25">
-        <v>24.104253796858501</v>
+        <v>24.05689360920568</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1795,7 +1786,7 @@
         <v>51</v>
       </c>
       <c r="D26">
-        <v>748.0999755859375</v>
+        <v>748.760009765625</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1804,10 +1795,10 @@
         <v>112</v>
       </c>
       <c r="G26">
-        <v>30.214054000000001</v>
+        <v>30.289646000000001</v>
       </c>
       <c r="H26">
-        <v>28.018723999999999</v>
+        <v>28.043445999999999</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1822,13 +1813,13 @@
         <v>28.33459111814113</v>
       </c>
       <c r="M26">
-        <v>24.76</v>
+        <v>24.72</v>
       </c>
       <c r="N26">
         <v>26.7</v>
       </c>
       <c r="O26">
-        <v>48.859473123166751</v>
+        <v>48.805568654555167</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1839,7 +1830,7 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>35.880001068115227</v>
+        <v>36.5</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -1848,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="G27">
-        <v>8.3636370000000007</v>
+        <v>8.5081589999999991</v>
       </c>
       <c r="H27">
-        <v>7.6340430000000001</v>
+        <v>7.7659580000000004</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1872,7 +1863,7 @@
         <v>4.7</v>
       </c>
       <c r="O27">
-        <v>49.808519958788843</v>
+        <v>49.868326228657793</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1883,19 +1874,19 @@
         <v>53</v>
       </c>
       <c r="D28">
-        <v>116.2600021362305</v>
+        <v>117.30999755859381</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
       </c>
       <c r="F28">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G28">
-        <v>19.312291999999999</v>
+        <v>19.486712000000001</v>
       </c>
       <c r="H28">
-        <v>18.337540000000001</v>
+        <v>18.503153000000001</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1916,7 +1907,7 @@
         <v>6.34</v>
       </c>
       <c r="O28">
-        <v>18.461808200874671</v>
+        <v>18.45849752048457</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1927,19 +1918,19 @@
         <v>54</v>
       </c>
       <c r="D29">
-        <v>139.07000732421881</v>
+        <v>141.6300048828125</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
       </c>
       <c r="F29">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G29">
-        <v>18.946867000000001</v>
+        <v>19.295639999999999</v>
       </c>
       <c r="H29">
-        <v>18.226738000000001</v>
+        <v>18.562253999999999</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -1960,7 +1951,7 @@
         <v>7.63</v>
       </c>
       <c r="O29">
-        <v>19.699410478973871</v>
+        <v>19.73672207437011</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1971,19 +1962,19 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>21.170000076293949</v>
+        <v>21.559999465942379</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
       <c r="F30">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G30">
-        <v>9.6227269999999994</v>
+        <v>9.7999989999999997</v>
       </c>
       <c r="H30">
-        <v>9.6666659999999993</v>
+        <v>9.8447484999999997</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -2004,7 +1995,7 @@
         <v>2.19</v>
       </c>
       <c r="O30">
-        <v>28.00837997074737</v>
+        <v>28.024970393729991</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2015,19 +2006,19 @@
         <v>56</v>
       </c>
       <c r="D31">
-        <v>166.19000244140619</v>
+        <v>163.97999572753909</v>
       </c>
       <c r="E31" t="s">
         <v>57</v>
       </c>
       <c r="F31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>18.547989999999999</v>
+        <v>18.301338000000001</v>
       </c>
       <c r="H31">
-        <v>18.547989999999999</v>
+        <v>18.301338000000001</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -2048,7 +2039,7 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="O31">
-        <v>31.31891019922525</v>
+        <v>31.3490964999345</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2059,19 +2050,19 @@
         <v>58</v>
       </c>
       <c r="D32">
-        <v>17.590000152587891</v>
+        <v>17.25</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
       <c r="F32">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G32">
-        <v>6.3046600000000002</v>
+        <v>6.1827959999999997</v>
       </c>
       <c r="H32">
-        <v>6.3963637000000002</v>
+        <v>6.2727275000000002</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -2092,7 +2083,7 @@
         <v>2.75</v>
       </c>
       <c r="O32">
-        <v>51.326312339869567</v>
+        <v>51.343411280904292</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2103,19 +2094,19 @@
         <v>59</v>
       </c>
       <c r="D33">
-        <v>194.2200012207031</v>
+        <v>193.44999694824219</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G33">
-        <v>23.627737</v>
+        <v>23.420095</v>
       </c>
       <c r="H33">
-        <v>24.037127999999999</v>
+        <v>23.941832000000002</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -2130,13 +2121,13 @@
         <v>41.686769633025442</v>
       </c>
       <c r="M33">
-        <v>8.2200000000000006</v>
+        <v>8.26</v>
       </c>
       <c r="N33">
         <v>8.08</v>
       </c>
       <c r="O33">
-        <v>46.587767069441902</v>
+        <v>46.578011105827173</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2147,19 +2138,19 @@
         <v>60</v>
       </c>
       <c r="D34">
-        <v>44.090000152587891</v>
+        <v>44.259998321533203</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
       </c>
       <c r="F34">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G34">
-        <v>16.390335</v>
+        <v>16.453531000000002</v>
       </c>
       <c r="H34">
-        <v>16.764257000000001</v>
+        <v>16.828896</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -2180,7 +2171,7 @@
         <v>2.63</v>
       </c>
       <c r="O34">
-        <v>19.91362800714478</v>
+        <v>19.922364616148439</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2191,19 +2182,19 @@
         <v>61</v>
       </c>
       <c r="D35">
-        <v>41.549999237060547</v>
+        <v>42.180000305175781</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
       </c>
       <c r="F35">
-        <v>3670</v>
+        <v>3663</v>
       </c>
       <c r="G35">
-        <v>6.6800639999999998</v>
+        <v>6.7488003000000001</v>
       </c>
       <c r="H35">
-        <v>7.0423726999999996</v>
+        <v>7.1491522999999999</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -2215,16 +2206,16 @@
         <v>6341936021504</v>
       </c>
       <c r="L35">
-        <v>28.08795140526566</v>
+        <v>28.104146008031432</v>
       </c>
       <c r="M35">
-        <v>6.22</v>
+        <v>6.25</v>
       </c>
       <c r="N35">
         <v>5.9</v>
       </c>
       <c r="O35">
-        <v>31.777443591983879</v>
+        <v>29.816027408927031</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,19 +2226,19 @@
         <v>62</v>
       </c>
       <c r="D36">
-        <v>58.889999389648438</v>
+        <v>59.900001525878913</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
       </c>
       <c r="F36">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="G36">
-        <v>9.8808729999999994</v>
+        <v>10.050336</v>
       </c>
       <c r="H36">
-        <v>11.007477</v>
+        <v>11.196262000000001</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -2268,7 +2259,7 @@
         <v>5.35</v>
       </c>
       <c r="O36">
-        <v>19.421716931889542</v>
+        <v>19.425320648927819</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2279,19 +2270,19 @@
         <v>63</v>
       </c>
       <c r="D37">
-        <v>13.39999961853027</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="E37" t="s">
         <v>41</v>
       </c>
       <c r="F37">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G37">
-        <v>7.5706214999999997</v>
+        <v>7.7796609999999999</v>
       </c>
       <c r="H37">
-        <v>14.255319</v>
+        <v>14.648936000000001</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -2312,7 +2303,7 @@
         <v>0.94</v>
       </c>
       <c r="O37">
-        <v>30.43409405600454</v>
+        <v>30.48816078686804</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2323,19 +2314,19 @@
         <v>64</v>
       </c>
       <c r="D38">
-        <v>17.420000076293949</v>
+        <v>17.85000038146973</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
       </c>
       <c r="F38">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G38">
-        <v>8.7537690000000001</v>
+        <v>8.9698499999999992</v>
       </c>
       <c r="H38">
-        <v>16.590477</v>
+        <v>17.000001999999999</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -2356,7 +2347,7 @@
         <v>1.05</v>
       </c>
       <c r="O38">
-        <v>36.212269422141411</v>
+        <v>36.213328731895317</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2367,19 +2358,19 @@
         <v>65</v>
       </c>
       <c r="D39">
-        <v>14.35000038146973</v>
+        <v>14.710000038146971</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
       </c>
       <c r="F39">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G39">
-        <v>11.666667</v>
+        <v>11.862904</v>
       </c>
       <c r="H39">
-        <v>35</v>
+        <v>35.878048</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -2394,13 +2385,13 @@
         <v>22.5677633341305</v>
       </c>
       <c r="M39">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="N39">
         <v>0.41</v>
       </c>
       <c r="O39">
-        <v>36.518340063380883</v>
+        <v>36.547327290427617</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2446,19 +2437,19 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" t="s">
         <v>70</v>
+      </c>
+      <c r="D41">
+        <v>18.090000152587891</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="F41" t="s">
+        <v>17</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2484,8 +2475,8 @@
       <c r="N41" t="s">
         <v>17</v>
       </c>
-      <c r="O41" t="s">
-        <v>17</v>
+      <c r="O41">
+        <v>177.20723065503449</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2496,7 +2487,7 @@
         <v>71</v>
       </c>
       <c r="D42">
-        <v>3.75</v>
+        <v>3.4300000667572021</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -2508,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="H42">
-        <v>-0.67934779999999995</v>
+        <v>-0.62137679999999995</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -2529,7 +2520,7 @@
         <v>-5.52</v>
       </c>
       <c r="O42">
-        <v>173.19889224584509</v>
+        <v>173.24117775639519</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2539,14 +2530,14 @@
       <c r="C43" t="s">
         <v>72</v>
       </c>
-      <c r="D43" t="s">
-        <v>73</v>
+      <c r="D43">
+        <v>19.261800765991211</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="F43">
-        <v>0</v>
+      <c r="F43" t="s">
+        <v>17</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2572,19 +2563,19 @@
       <c r="N43" t="s">
         <v>17</v>
       </c>
-      <c r="O43" t="s">
-        <v>17</v>
+      <c r="O43">
+        <v>14.908049005203621</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
         <v>74</v>
       </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
       <c r="D44">
-        <v>6.0830001831054688</v>
+        <v>6.0910000801086426</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
@@ -2617,18 +2608,18 @@
         <v>17</v>
       </c>
       <c r="O44">
-        <v>2.6935631233785231</v>
+        <v>2.6938878926937599</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45">
-        <v>6.2290000915527344</v>
+        <v>6.2280001640319824</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
@@ -2661,18 +2652,18 @@
         <v>17</v>
       </c>
       <c r="O45">
-        <v>2.719329172670331</v>
+        <v>2.7232784986408141</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>72.279998779296875</v>
+        <v>73.044998168945313</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
@@ -2681,7 +2672,7 @@
         <v>310</v>
       </c>
       <c r="G46">
-        <v>14.877765999999999</v>
+        <v>15.03523</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
@@ -2705,18 +2696,18 @@
         <v>17</v>
       </c>
       <c r="O46">
-        <v>13.957181852203981</v>
+        <v>13.990336837559219</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47">
-        <v>47.729999542236328</v>
+        <v>47.830001831054688</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
@@ -2725,7 +2716,7 @@
         <v>313</v>
       </c>
       <c r="G47">
-        <v>15.354886</v>
+        <v>15.387055999999999</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -2749,7 +2740,7 @@
         <v>17</v>
       </c>
       <c r="O47">
-        <v>18.641374928448201</v>
+        <v>18.634253413693731</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2757,10 +2748,10 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>34.830001831054688</v>
+        <v>34.229999542236328</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
@@ -2772,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="H48">
-        <v>8.7512570000000007</v>
+        <v>8.6005020000000005</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -2793,27 +2784,27 @@
         <v>3.98</v>
       </c>
       <c r="O48">
-        <v>43.576472690873011</v>
+        <v>43.413097776259512</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="D49">
+        <v>592.8499755859375</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
+        <v>129</v>
+      </c>
+      <c r="G49">
+        <v>25.831364000000001</v>
       </c>
       <c r="H49" t="s">
         <v>17</v>
@@ -2836,19 +2827,19 @@
       <c r="N49" t="s">
         <v>17</v>
       </c>
-      <c r="O49" t="s">
-        <v>17</v>
+      <c r="O49">
+        <v>20.344070775043189</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50">
-        <v>49.745998382568359</v>
+        <v>49.773998260498047</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
@@ -2881,18 +2872,18 @@
         <v>17</v>
       </c>
       <c r="O50">
-        <v>49.077352461563898</v>
+        <v>49.030850304334827</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51">
-        <v>16.085199356079102</v>
+        <v>15.840999603271481</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
@@ -2925,7 +2916,7 @@
         <v>17</v>
       </c>
       <c r="O51">
-        <v>25.048084791536901</v>
+        <v>25.169243035205071</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2933,16 +2924,16 @@
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="D52">
+        <v>144.21600341796881</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
-      <c r="F52">
-        <v>0</v>
+      <c r="F52" t="s">
+        <v>17</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -2968,8 +2959,8 @@
       <c r="N52" t="s">
         <v>17</v>
       </c>
-      <c r="O52" t="s">
-        <v>17</v>
+      <c r="O52">
+        <v>11.10776888955863</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2977,10 +2968,10 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
         <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
@@ -3018,13 +3009,13 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
       </c>
       <c r="D54">
-        <v>20.479999542236332</v>
+        <v>20.52499961853027</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
@@ -3033,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>31.238925999999999</v>
+        <v>31.307566000000001</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
@@ -3057,18 +3048,18 @@
         <v>17</v>
       </c>
       <c r="O54">
-        <v>25.89146791509063</v>
+        <v>25.933392497731621</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>86</v>
       </c>
       <c r="D55">
-        <v>72.480003356933594</v>
+        <v>72.330001831054688</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
@@ -3101,7 +3092,7 @@
         <v>17</v>
       </c>
       <c r="O55">
-        <v>5.3040143477378168</v>
+        <v>5.3032017662615578</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3112,7 +3103,7 @@
         <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
@@ -3149,6 +3140,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>